--- a/vignettes/data/labels.xlsx
+++ b/vignettes/data/labels.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Munkk\Desktop\Holomics\vignettes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\AIT\Holomics\vignettes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FAF52B-696A-4317-8CD3-52661B112C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B53785A-1743-4A39-B5FF-B17403714FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D82AE664-C31C-46C4-A0C3-A6C76EDA62EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D82AE664-C31C-46C4-A0C3-A6C76EDA62EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,45 +36,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
-    <t>Storability</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>Colorcode</t>
   </si>
   <si>
     <t>Samples</t>
   </si>
   <si>
-    <t>V1_1_t0</t>
-  </si>
-  <si>
-    <t>V1_2_t0</t>
-  </si>
-  <si>
-    <t>V1_3_t0</t>
-  </si>
-  <si>
-    <t>V1_4_t0</t>
-  </si>
-  <si>
-    <t>V2_1_t0</t>
-  </si>
-  <si>
-    <t>V2_2_t0</t>
-  </si>
-  <si>
-    <t>V2_3_t0</t>
-  </si>
-  <si>
-    <t>V2_4_t0</t>
-  </si>
-  <si>
     <t>#b3ca81</t>
   </si>
   <si>
@@ -89,6 +55,39 @@
   </si>
   <si>
     <t>red</t>
+  </si>
+  <si>
+    <t>Sample1</t>
+  </si>
+  <si>
+    <t>Sample2</t>
+  </si>
+  <si>
+    <t>Sample3</t>
+  </si>
+  <si>
+    <t>Sample4</t>
+  </si>
+  <si>
+    <t>Sample5</t>
+  </si>
+  <si>
+    <t>Sample6</t>
+  </si>
+  <si>
+    <t>Sample7</t>
+  </si>
+  <si>
+    <t>Sample8</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>treatment1</t>
   </si>
 </sst>
 </file>
@@ -456,108 +455,108 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
